--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf18-Tnfrsf18.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf18-Tnfrsf18.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3150613333333334</v>
+        <v>0.102275</v>
       </c>
       <c r="H2">
-        <v>0.945184</v>
+        <v>0.306825</v>
       </c>
       <c r="I2">
-        <v>0.4798409573425743</v>
+        <v>0.2304482333616488</v>
       </c>
       <c r="J2">
-        <v>0.4798409573425743</v>
+        <v>0.2304482333616488</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.52926</v>
+        <v>0.594753</v>
       </c>
       <c r="N2">
-        <v>1.58778</v>
+        <v>1.784259</v>
       </c>
       <c r="O2">
-        <v>0.1782834583249587</v>
+        <v>0.1851180661871173</v>
       </c>
       <c r="P2">
-        <v>0.1782834583249587</v>
+        <v>0.1851180661871173</v>
       </c>
       <c r="Q2">
-        <v>0.16674936128</v>
+        <v>0.060828363075</v>
       </c>
       <c r="R2">
-        <v>1.50074425152</v>
+        <v>0.5474552676750001</v>
       </c>
       <c r="S2">
-        <v>0.08554770532099314</v>
+        <v>0.04266013131614595</v>
       </c>
       <c r="T2">
-        <v>0.08554770532099314</v>
+        <v>0.04266013131614595</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3150613333333334</v>
+        <v>0.102275</v>
       </c>
       <c r="H3">
-        <v>0.945184</v>
+        <v>0.306825</v>
       </c>
       <c r="I3">
-        <v>0.4798409573425743</v>
+        <v>0.2304482333616488</v>
       </c>
       <c r="J3">
-        <v>0.4798409573425743</v>
+        <v>0.2304482333616488</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.302263</v>
       </c>
       <c r="O3">
-        <v>0.4830784656964516</v>
+        <v>0.4463626675210189</v>
       </c>
       <c r="P3">
-        <v>0.4830784656964516</v>
+        <v>0.4463626675210189</v>
       </c>
       <c r="Q3">
-        <v>0.4518255723768889</v>
+        <v>0.1466713161083333</v>
       </c>
       <c r="R3">
-        <v>4.066430151392</v>
+        <v>1.320041844975</v>
       </c>
       <c r="S3">
-        <v>0.2318008334513673</v>
+        <v>0.1028634881688118</v>
       </c>
       <c r="T3">
-        <v>0.2318008334513673</v>
+        <v>0.1028634881688118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3150613333333334</v>
+        <v>0.102275</v>
       </c>
       <c r="H4">
-        <v>0.945184</v>
+        <v>0.306825</v>
       </c>
       <c r="I4">
-        <v>0.4798409573425743</v>
+        <v>0.2304482333616488</v>
       </c>
       <c r="J4">
-        <v>0.4798409573425743</v>
+        <v>0.2304482333616488</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.005295666666667</v>
+        <v>1.18399</v>
       </c>
       <c r="N4">
-        <v>3.015887</v>
+        <v>3.55197</v>
       </c>
       <c r="O4">
-        <v>0.3386380759785896</v>
+        <v>0.3685192662918639</v>
       </c>
       <c r="P4">
-        <v>0.3386380759785895</v>
+        <v>0.3685192662918639</v>
       </c>
       <c r="Q4">
-        <v>0.3167297931342223</v>
+        <v>0.12109257725</v>
       </c>
       <c r="R4">
-        <v>2.850568138208</v>
+        <v>1.08983319525</v>
       </c>
       <c r="S4">
-        <v>0.1624924185702138</v>
+        <v>0.08492461387669106</v>
       </c>
       <c r="T4">
-        <v>0.1624924185702138</v>
+        <v>0.08492461387669105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.024602</v>
       </c>
       <c r="I5">
-        <v>0.5201590426574256</v>
+        <v>0.7695517666383512</v>
       </c>
       <c r="J5">
-        <v>0.5201590426574257</v>
+        <v>0.7695517666383511</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.52926</v>
+        <v>0.594753</v>
       </c>
       <c r="N5">
-        <v>1.58778</v>
+        <v>1.784259</v>
       </c>
       <c r="O5">
-        <v>0.1782834583249587</v>
+        <v>0.1851180661871173</v>
       </c>
       <c r="P5">
-        <v>0.1782834583249587</v>
+        <v>0.1851180661871173</v>
       </c>
       <c r="Q5">
-        <v>0.18076028484</v>
+        <v>0.203128371102</v>
       </c>
       <c r="R5">
-        <v>1.62684256356</v>
+        <v>1.828155339918</v>
       </c>
       <c r="S5">
-        <v>0.09273575300396557</v>
+        <v>0.1424579348709713</v>
       </c>
       <c r="T5">
-        <v>0.0927357530039656</v>
+        <v>0.1424579348709713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.024602</v>
       </c>
       <c r="I6">
-        <v>0.5201590426574256</v>
+        <v>0.7695517666383512</v>
       </c>
       <c r="J6">
-        <v>0.5201590426574257</v>
+        <v>0.7695517666383511</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.302263</v>
       </c>
       <c r="O6">
-        <v>0.4830784656964516</v>
+        <v>0.4463626675210189</v>
       </c>
       <c r="P6">
-        <v>0.4830784656964516</v>
+        <v>0.4463626675210189</v>
       </c>
       <c r="Q6">
         <v>0.4897896971473333</v>
@@ -818,10 +818,10 @@
         <v>4.408107274326</v>
       </c>
       <c r="S6">
-        <v>0.2512776322450843</v>
+        <v>0.3434991793522071</v>
       </c>
       <c r="T6">
-        <v>0.2512776322450844</v>
+        <v>0.343499179352207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.024602</v>
       </c>
       <c r="I7">
-        <v>0.5201590426574256</v>
+        <v>0.7695517666383512</v>
       </c>
       <c r="J7">
-        <v>0.5201590426574257</v>
+        <v>0.7695517666383511</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.005295666666667</v>
+        <v>1.18399</v>
       </c>
       <c r="N7">
-        <v>3.015887</v>
+        <v>3.55197</v>
       </c>
       <c r="O7">
-        <v>0.3386380759785896</v>
+        <v>0.3685192662918639</v>
       </c>
       <c r="P7">
-        <v>0.3386380759785895</v>
+        <v>0.3685192662918639</v>
       </c>
       <c r="Q7">
-        <v>0.3433426502193334</v>
+        <v>0.40437284066</v>
       </c>
       <c r="R7">
-        <v>3.090083851974</v>
+        <v>3.63935556594</v>
       </c>
       <c r="S7">
-        <v>0.1761456574083757</v>
+        <v>0.2835946524151729</v>
       </c>
       <c r="T7">
-        <v>0.1761456574083757</v>
+        <v>0.2835946524151728</v>
       </c>
     </row>
   </sheetData>
